--- a/biology/Botanique/Digitaria_eriantha/Digitaria_eriantha.xlsx
+++ b/biology/Botanique/Digitaria_eriantha/Digitaria_eriantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Digitaria eriantha est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire d'Afrique.
 Connue sous le nom de « pangola », cette plante est cultivée dans les régions tropicales comme plante fourragère.
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Digitaria eriantha est une plante herbacée, vivace, parfois stolonifère. C'est une plante qui forme des tapis denses avec des stonons allongés couverts de poils ou non[2]. Les tiges (chaumes), dressées ou ascendantes, peuvent atteindre de 35 à 180 cm de haut[3].
-La gaine de la feuille basale est couverte de poils denses, ou est très rarement lisse[3]. Le limbe foliaire mesure généralement de 5 à 60 cm de long sur 2 à 14 mm de large et peut être soit tomenteux soit lisse. La ligule membraneuse, non ciliée, mesure de 2  5 mm de long[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Digitaria eriantha est une plante herbacée, vivace, parfois stolonifère. C'est une plante qui forme des tapis denses avec des stonons allongés couverts de poils ou non. Les tiges (chaumes), dressées ou ascendantes, peuvent atteindre de 35 à 180 cm de haut.
+La gaine de la feuille basale est couverte de poils denses, ou est très rarement lisse. Le limbe foliaire mesure généralement de 5 à 60 cm de long sur 2 à 14 mm de large et peut être soit tomenteux soit lisse. La ligule membraneuse, non ciliée, mesure de 2  5 mm de long.
 L'inflorescence est composée de six à sept racèmes spiciformes, portant chacun de nombreux épillets.
-Ceux-ci font généralement de 2 à 4 mm de long. la glume inférieure est aussi longue que l'épillet et la glume supérieure est couverte de poils longs de 1 mm[3].
+Ceux-ci font généralement de 2 à 4 mm de long. la glume inférieure est aussi longue que l'épillet et la glume supérieure est couverte de poils longs de 1 mm.
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition originelle de Digitaria eriantha est limitée à l'Afrique australe et tropicale : Afrique du Sud, Angola, Botswana, Mozambique, Namibie, Swaziland, Zimbabwe.
 L'espèce s'est naturalisée dans la région du Pacifique (Hawaï) ainsi qu'en Amérique du Sud (Argentine, Brésil, Colombie, Paraguay) et en Amérique centrale et dans les Caraïbes (Costa Rica, Cuba, Porto Rico, Îles Vierges (États-Unis)
-Elle est cultivée notamment aux États-Unis, au Zimbabwe, au  Costa Rica (Guanacaste) et en Équateur (îles Galápagos)[4].
+Elle est cultivée notamment aux États-Unis, au Zimbabwe, au  Costa Rica (Guanacaste) et en Équateur (îles Galápagos).
 </t>
         </is>
       </c>
@@ -581,8 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (29 septembre 2017)[5] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (29 septembre 2017) :
 Digitaria bechuanica (Stent) Henrard
 Digitaria commutata subsp. eriantha (Steud.) Maire
 Digitaria decumbens Stent
@@ -605,11 +626,46 @@
 Digitaria umfolozi D.W.Hall
 Digitaria valida Stent
 Digitaria valida var. glauca Stent
-Liste des sous-espèces et variétés
-Selon The Plant List            (29 septembre 2017)[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Digitaria_eriantha</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Digitaria_eriantha</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (29 septembre 2017) :
 sous-espèce Digitaria eriantha subsp. pentzii (Stent) Kok
 variété Digitaria eriantha var. stolonifera Stapf
-Selon Tropicos                                           (29 septembre 2017)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (29 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Digitaria eriantha subsp. eriantha
 sous-espèce Digitaria eriantha subsp. pentzii (Stent) Kok
 sous-espèce Digitaria eriantha subsp. transvaalensis Kok
